--- a/SupplementaryTables/Supplementary Table 10.xlsx
+++ b/SupplementaryTables/Supplementary Table 10.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddabl\Documents\Network\drugs\drg1_paper\supp\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsiwo/Desktop/NatureMachineIntelligenceFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60EF05A-5038-4822-B0C1-141F896ED7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCD5572-C55A-4E41-9A79-005C2ACB0DE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="moret_nucs_rating_no1_alpha1" sheetId="1" r:id="rId1"/>
+    <sheet name="S10" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">moret_nucs_rating_no1_alpha1!$A$1:$D$470</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">moret_nucs_rating_no1_alpha1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'S10'!$A$1:$D$470</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'S10'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2265,17 +2265,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="74.77734375" customWidth="1"/>
+    <col min="1" max="1" width="74.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>461</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>96</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>0.97560977935791005</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0.931818187236785</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>0.92307692766189497</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>0.91891890764236395</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>0.88372093439102095</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0.87804877758026101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>0.85416668653488104</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>0.85365855693817105</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>0.84782606363296498</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>0.83333331346511796</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0.82926827669143599</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>0.82926827669143599</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0.818181812763214</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0.81395345926284701</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0.81395345926284701</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0.795454561710357</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0.79069769382476796</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0.78260868787765503</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>0.77777779102325395</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>187</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>0.77083331346511796</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>0.76744186878204301</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>0.76744186878204301</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>0.76744186878204301</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>203</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>0.76190477609634399</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0.75999999046325595</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>0.75609755516052202</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>0.74468082189559903</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>0.74418604373931796</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>21</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>0.74418604373931796</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0.74358975887298495</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>0.74358975887298495</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0.74074071645736606</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>0.73913043737411499</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>0.73809522390365601</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>0.73684209585189797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>0.73170733451843195</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>0.72916668653488104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0.72340422868728604</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>0.72340422868728604</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0.72000002861022905</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0.71739131212234497</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>114</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>0.71428573131561202</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0.71428573131561202</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0.71428573131561202</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>31</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>0.71428573131561202</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>34</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>0.70833331346511796</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0.70588237047195401</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>0.70588237047195401</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>36</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0.70588237047195401</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>0.704545438289642</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>0.70212763547897294</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>39</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>0.69999998807907104</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>41</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>0.69230771064758301</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0.69047617912292403</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0.68888890743255604</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0.68888890743255604</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>46</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0.68627452850341797</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0.68085104227065996</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0.67441862821578902</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>0.67391306161880404</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0.67391306161880404</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>0.67272728681564298</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>191</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>0.66666668653488104</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>32</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0.66071426868438698</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>0.66037738323211603</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0.66000002622604304</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>0.65957444906234697</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>72</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>0.659090936183929</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>70</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0.659090936183929</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>0.65853661298751798</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>60</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0.65573769807815496</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0.65454542636871305</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>63</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0.65384614467620805</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0.65384614467620805</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0.65306121110916104</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>147</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>0.65306121110916104</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>65</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>0.65217393636703402</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>64</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>0.65217393636703402</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>67</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.65217393636703402</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0.65217393636703402</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>190</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0.64814811944961503</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>207</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0.64705884456634499</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>68</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0.64705884456634499</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0.64285713434219305</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>74</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0.64150941371917702</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>75</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0.63999998569488503</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>76</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>0.63829785585403398</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>131</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>0.636363625526428</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>186</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0.63461536169052102</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>154</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>0.63265305757522505</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>78</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0.63265305757522505</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>204</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0.63265305757522505</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>80</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0.630434811115264</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>0.630434811115264</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0.630434811115264</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0.630434811115264</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>0.62962961196899403</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0.62962961196899403</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0.62962961196899403</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>213</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.62962961196899403</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>87</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0.62000000476837103</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>0.62000000476837103</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>0.61904764175414995</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>0.61538463830947798</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>146</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0.61403506994247403</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>145</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>0.613636374473571</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>94</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0.61224490404128995</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>93</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0.61224490404128995</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>150</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>0.61224490404128995</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>95</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0.61111110448837203</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>196</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>0.60975611209869296</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>97</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>0.60869562625884999</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>105</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>0.60869562625884999</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>99</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0.60465115308761597</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>229</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0.60416668653488104</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>0.603773593902587</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>103</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0.603773593902587</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>202</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>0.59649121761321999</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>106</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0.59615385532379095</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>0.59615385532379095</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>179</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0.595744669437408</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>148</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0.595744669437408</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>107</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0.59259259700775102</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>109</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>0.59183675050735396</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>108</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0.59183675050735396</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>110</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>0.59090906381607</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>0.58823531866073597</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>118</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>197</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>117</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>116</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>119</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>115</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0.58490568399429299</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>120</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>0.58333331346511796</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>140</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>0.58333331346511796</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>121</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0.57999998331069902</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>127</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>0.57999998331069902</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>122</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>0.57692307233810403</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>125</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0.57446807622909501</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>123</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>0.57446807622909501</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>0.57446807622909501</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>124</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>0.57446807622909501</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>234</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>0.57142859697341897</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>129</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>0.56862747669219904</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>130</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>0.56603771448135298</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>139</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>0.56521737575530995</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.56521737575530995</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>132</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>0.56363636255264205</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>133</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0.56097561120986905</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>199</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0.56000000238418501</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>144</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0.56000000238418501</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>232</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0.55932205915451005</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>134</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0.55932205915451005</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>135</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>0.55769228935241699</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>137</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>0.55769228935241699</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0.55555558204650801</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>233</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0.55555558204650801</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>136</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>0.55555558204650801</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>214</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>0.55102038383483798</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>141</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>0.549019634723663</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>142</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>0.548387110233306</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>143</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>0.545454561710357</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>184</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>0.545454561710357</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>221</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0.54347825050354004</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>0.54347825050354004</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>255</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0.54237288236617998</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>189</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>0.54166668653488104</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>156</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>0.53846156597137396</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>231</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>0.53703701496124201</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>149</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0.53571426868438698</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>169</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>0.53488373756408603</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>164</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>0.53333336114883401</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>152</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>0.53061223030090299</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>178</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0.53061223030090299</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>153</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>0.52941179275512695</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>198</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>0.52499997615814198</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>194</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>0.522727251052856</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>168</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>0.52083331346511796</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>158</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0.52083331346511796</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>162</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>0.52054792642593295</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>183</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>0.51999998092651301</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>215</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>0.51724135875701904</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>175</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>0.51724135875701904</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>161</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0.51666665077209395</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>193</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>0.511111140251159</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>225</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>0.510204076766967</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>166</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>0.50980395078659002</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0.50943398475646895</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>167</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0.50943398475646895</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>185</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>0.50909090042114202</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>176</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>0.50847458839416504</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>173</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>0.50819671154022195</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>170</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>171</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>172</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>0.49206349253654402</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>223</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>0.491803288459777</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>177</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0.49090909957885698</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>195</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0.48936170339584301</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>181</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>0.48837208747863697</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>182</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0.48275861144065801</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>188</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>0.48076921701431202</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>217</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>0.48076921701431202</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>200</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>0.479999989271163</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>256</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>0.475409835577011</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>212</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>0.47169810533523499</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>208</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0.46938776969909601</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>192</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0.46938776969909601</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>201</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0.460317462682724</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>224</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>0.45762711763381902</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>210</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0.45762711763381902</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>308</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0.45714285969734098</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0.453125</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>206</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>0.450980395078659</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>220</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0.450980395078659</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>218</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>0.44999998807907099</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>209</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>0.44999998807907099</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>216</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0.44444444775581299</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>219</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>0.42372882366180398</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>222</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>0.42307692766189497</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>227</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>0.41269841790199202</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>230</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>0.40983605384826599</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>246</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0.409090906381607</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>321</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0.40740740299224798</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>238</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>0.404255330562591</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>0.40350878238677901</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>248</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0.40350878238677901</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>0.40000000596046398</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>235</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>0.396226406097412</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>325</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>0.39393940567970198</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>236</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>0.39285713434219299</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>295</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>0.39215686917304898</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>0.38596490025520303</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>237</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>0.38235294818878102</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>291</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0.38028168678283603</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>288</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>0.37999999523162797</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>275</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>0.37999999523162797</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>265</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>0.37931033968925398</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>240</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>0.37931033968925398</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>239</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>0.37931033968925398</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>283</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>242</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>0.37288135290145802</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>0.37096774578094399</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>247</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>0.36842104792594899</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>241</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>0.36842104792594899</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>272</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>0.36764705181121798</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>250</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0.363636374473571</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>244</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>0.362068951129913</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>268</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>0.36000001430511402</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>258</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0.359375</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>262</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>0.35849055647849998</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>253</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>0.35593220591545099</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>249</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>0.35593220591545099</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>251</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>0.35483869910240101</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>261</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>0.35483869910240101</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>361</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0.35416665673255898</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>276</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>0.35384616255760099</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>260</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>0.35384616255760099</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>281</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>0.35294118523597701</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>257</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>0.34920635819435097</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>269</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>0.34782609343528698</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>296</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0.34545454382896401</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>270</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>274</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0.33870968222618097</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>287</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0.33802816271781899</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>323</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>306</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>284</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>263</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>278</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>0.33333334326744002</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>271</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>0.328125</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>307</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>0.32758620381355202</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>329</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>0.32727271318435602</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>330</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0.32558140158653198</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>273</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0.32307693362236001</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>368</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0.322580635547637</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>264</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>0.322033911943435</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>347</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>0.322033911943435</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>266</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>0.32142856717109602</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>290</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>0.32142856717109602</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>267</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>0.31999999284744202</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>304</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0.31578946113586398</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>312</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>0.31343284249305697</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>294</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>0.31147539615631098</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>301</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>0.31111112236976601</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>322</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>0.30952382087707497</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>279</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>0.30909091234207098</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>315</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0.30909091234207098</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>280</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>0.30882352590560902</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>277</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>0.30882352590560902</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>318</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0.30882352590560902</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>285</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0.30666667222976601</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>299</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>0.30645161867141701</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>286</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>0.30434781312942499</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>293</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>0.30303031206130898</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>289</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>0.301886796951293</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>282</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>0.301886796951293</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>300</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0.301886796951293</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>292</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>0.30000001192092801</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>344</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>0.30000001192092801</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>305</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>0.30000001192092801</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>309</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>0.29824560880661</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0.29629629850387501</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>316</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>0.29508197307586598</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>353</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>0.29310345649719199</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>302</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>0.29230770468711798</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>303</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>0.29230770468711798</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>339</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>297</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>334</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>0.28571429848670898</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>298</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>0.28333333134651101</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>314</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0.28301885724067599</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>310</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>313</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>0.28125</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>319</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>0.28000000119209201</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>327</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>0.28000000119209201</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>311</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>0.27906978130340498</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>336</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>0.27868852019309998</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>369</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>0.27500000596046398</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>415</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>0.274509817361831</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>317</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0.272727280855178</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>331</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>0.26760563254356301</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>324</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>0.26470589637756298</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>326</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0.26315790414810097</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>320</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>0.26315790414810097</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>441</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>0.26190477609634399</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>380</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>0.26086956262588501</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>370</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>0.25925925374031</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>374</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0.25925925374031</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0.25862067937850902</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>349</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>0.25862067937850902</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>0.25806450843811002</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>397</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>0.25757575035095198</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>328</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>0.25714287161826999</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>377</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>0.25531914830207803</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>345</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0.25454545021057101</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>333</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0.25423729419708202</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>357</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0.25423729419708202</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>338</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>0.25423729419708202</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>332</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>0.25301206111907898</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>367</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>376</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>341</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>350</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>0.24615384638309401</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>405</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0.24615384638309401</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>337</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0.245901644229888</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>437</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>0.24390244483947701</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>343</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>0.243243247270584</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>457</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>0.243243247270584</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>409</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>0.243243247270584</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>354</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>0.24285714328288999</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>375</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0.24242424964904699</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>356</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>0.24137930572032901</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>335</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>0.239999994635581</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>400</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>0.236842110753059</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>340</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>0.236363634467124</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>342</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>0.236111104488372</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>404</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0.23376622796058599</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>451</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>0.23255814611911699</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>348</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>0.229508191347122</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>422</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>0.22807016968727101</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>364</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>0.227272734045982</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>359</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>0.22619047760963401</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>384</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>0.225806444883346</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>352</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>0.225806444883346</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>455</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0.225806444883346</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>389</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>0.225352108478546</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>355</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>0.225352108478546</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>366</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>0.224999994039535</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0.22413793206214899</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>358</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>0.22413793206214899</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>429</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0.223684206604957</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>371</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>413</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>433</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>365</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>0.22222222387790599</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>363</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>0.220338985323905</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>401</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>0.21999999880790699</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>439</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>0.21818181872367801</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>444</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>0.217391297221183</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>438</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>0.21686747670173601</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>391</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>0.21666666865348799</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>360</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>0.21538461744785301</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>372</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>0.21538461744785301</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>446</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>0.21505376696586601</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>373</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>0.21333333849906899</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>412</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>0.213114753365516</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>421</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0.213114753365516</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>396</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0.21212121844291601</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>443</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>0.211267605423927</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>390</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>0.211267605423927</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>425</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>0.20869565010070801</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>426</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0.207792207598686</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>450</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0.20689655840396801</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>362</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>0.20689655840396801</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>431</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>0.20634920895099601</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>388</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>0.20512820780277199</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>378</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0.20370370149612399</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>387</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>0.20370370149612399</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>436</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>0.20338982343673701</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>393</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>0.203125</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>381</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0.203125</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>382</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>0.203125</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>385</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>0.202702701091766</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>399</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>0.202020198106765</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>11</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>449</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>379</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>386</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>0.20000000298023199</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>442</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>0.19827586412429801</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>432</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>0.19767442345619199</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>392</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>0.19753086566924999</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>398</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>0.19736842811107599</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>408</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>0.19696970283985099</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>394</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>0.19672131538391099</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>447</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>0.19607843458652399</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>435</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>0.19565217196941301</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>402</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>0.19512194395065299</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>411</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>0.19298245012760101</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>410</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>0.19230769574642101</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>420</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>0.191780820488929</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>423</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>0.190476194024086</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>419</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>0.18867924809455799</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>427</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>0.18604651093482899</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>416</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>0.18604651093482899</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>445</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>0.18571428954601199</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>453</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>0.184782609343528</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>418</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>0.184615388512611</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>440</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>0.183098584413528</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>452</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>0.181818187236785</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>414</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>0.18055555224418601</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>417</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>0.17910447716712899</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>407</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>0.17808219790458599</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>460</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>0.17808219790458599</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>434</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>0.17741934955120001</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>428</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>0.176470592617988</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>395</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0.176470592617988</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>403</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>0.175438597798347</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>424</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>0.175438597798347</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>458</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0.175257727503776</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>0.17460317909717499</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>406</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>0.17346939444541901</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>430</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>0.171875</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>456</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>0.16363635659217801</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>448</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>0.15555556118488301</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -7626,7 +7626,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D461">
+  <sortState ref="A2:D461">
     <sortCondition descending="1" ref="D2:D461"/>
   </sortState>
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0" footer="0"/>
